--- a/Lainnya/Metode penelitian.xlsx
+++ b/Lainnya/Metode penelitian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Skripsi\Lainnya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F66B24-502D-4F4D-AF1A-7728FE94528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653D9179-9E19-4A49-9A3E-E75AA1ABDEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{24E9A487-15DF-4577-95BF-8288844F23AB}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -851,9 +851,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6212,71 +6209,71 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="68">
-        <v>0</v>
-      </c>
-      <c r="E2" s="68">
+      <c r="D2" s="67">
+        <v>0</v>
+      </c>
+      <c r="E2" s="67">
         <v>1</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="67">
         <v>2</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="67">
         <v>3</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="67">
         <v>4</v>
       </c>
-      <c r="I2" s="68">
+      <c r="I2" s="67">
         <v>5</v>
       </c>
-      <c r="J2" s="68">
+      <c r="J2" s="67">
         <v>6</v>
       </c>
-      <c r="K2" s="68">
+      <c r="K2" s="67">
         <v>7</v>
       </c>
-      <c r="L2" s="68">
+      <c r="L2" s="67">
         <v>8</v>
       </c>
-      <c r="M2" s="68">
+      <c r="M2" s="67">
         <v>9</v>
       </c>
-      <c r="N2" s="68">
+      <c r="N2" s="67">
         <v>10</v>
       </c>
-      <c r="O2" s="68">
+      <c r="O2" s="67">
         <v>11</v>
       </c>
-      <c r="P2" s="68">
+      <c r="P2" s="67">
         <v>12</v>
       </c>
-      <c r="Q2" s="68">
+      <c r="Q2" s="67">
         <v>13</v>
       </c>
-      <c r="R2" s="68">
+      <c r="R2" s="67">
         <v>14</v>
       </c>
-      <c r="S2" s="68">
+      <c r="S2" s="67">
         <v>15</v>
       </c>
-      <c r="T2" s="68">
+      <c r="T2" s="67">
         <v>16</v>
       </c>
-      <c r="U2" s="68">
+      <c r="U2" s="67">
         <v>17</v>
       </c>
-      <c r="V2" s="68">
+      <c r="V2" s="67">
         <v>18</v>
       </c>
-      <c r="W2" s="68">
+      <c r="W2" s="67">
         <v>19</v>
       </c>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C3" s="53" t="s">
@@ -6297,7 +6294,7 @@
       <c r="H3" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="71" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="61" t="s">
@@ -6349,15 +6346,15 @@
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
       <c r="H4" s="63"/>
-      <c r="I4" s="70">
+      <c r="I4" s="69">
         <v>1</v>
       </c>
       <c r="J4" s="63"/>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L4" s="63"/>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="72" t="s">
         <v>79</v>
       </c>
       <c r="N4" s="63"/>
@@ -6390,7 +6387,7 @@
       <c r="H5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="71" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="63"/>
@@ -6400,10 +6397,10 @@
       <c r="P5" s="63"/>
       <c r="Q5" s="63"/>
       <c r="R5" s="63"/>
-      <c r="S5" s="69" t="s">
+      <c r="S5" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="71" t="s">
+      <c r="T5" s="70" t="s">
         <v>22</v>
       </c>
       <c r="U5" s="57" t="s">
@@ -6417,25 +6414,25 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="68">
-        <v>0</v>
-      </c>
-      <c r="E6" s="68">
+      <c r="D6" s="67">
+        <v>0</v>
+      </c>
+      <c r="E6" s="67">
         <v>1</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="67">
         <v>2</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="67">
         <v>3</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="67">
         <v>4</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="67">
         <v>5</v>
       </c>
       <c r="J6" s="63"/>
@@ -6447,7 +6444,7 @@
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
       <c r="R6" s="63"/>
-      <c r="S6" s="69" t="s">
+      <c r="S6" s="68" t="s">
         <v>78</v>
       </c>
       <c r="T6" s="57">
@@ -6511,67 +6508,67 @@
       <c r="A10" s="53">
         <v>2</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="68">
-        <v>0</v>
-      </c>
-      <c r="E10" s="68">
+      <c r="D10" s="67">
+        <v>0</v>
+      </c>
+      <c r="E10" s="67">
         <v>1</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="67">
         <v>2</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="67">
         <v>3</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="67">
         <v>4</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="67">
         <v>5</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="67">
         <v>6</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="67">
         <v>7</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="67">
         <v>8</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="67">
         <v>9</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="67">
         <v>10</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="67">
         <v>11</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="67">
         <v>12</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="67">
         <v>13</v>
       </c>
-      <c r="R10" s="68">
+      <c r="R10" s="67">
         <v>14</v>
       </c>
-      <c r="S10" s="68">
+      <c r="S10" s="67">
         <v>15</v>
       </c>
-      <c r="T10" s="68">
+      <c r="T10" s="67">
         <v>16</v>
       </c>
-      <c r="U10" s="68">
+      <c r="U10" s="67">
         <v>17</v>
       </c>
-      <c r="V10" s="68">
+      <c r="V10" s="67">
         <v>18</v>
       </c>
-      <c r="W10" s="68">
+      <c r="W10" s="67">
         <v>19</v>
       </c>
     </row>
@@ -6591,13 +6588,13 @@
       <c r="G11" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="74" t="s">
+      <c r="H11" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="73" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="61" t="s">
@@ -6644,21 +6641,21 @@
       <c r="D12" s="63"/>
       <c r="E12" s="63"/>
       <c r="F12" s="63"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70">
+      <c r="G12" s="69"/>
+      <c r="H12" s="69">
         <v>4</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="69">
         <v>3</v>
       </c>
-      <c r="J12" s="70">
+      <c r="J12" s="69">
         <v>2</v>
       </c>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="72" t="s">
         <v>75</v>
       </c>
       <c r="L12" s="63"/>
-      <c r="M12" s="73" t="s">
+      <c r="M12" s="72" t="s">
         <v>80</v>
       </c>
       <c r="N12" s="63"/>
@@ -6685,13 +6682,13 @@
       <c r="G13" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="74" t="s">
+      <c r="I13" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="73" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="63"/>
@@ -6700,10 +6697,10 @@
       <c r="P13" s="63"/>
       <c r="Q13" s="63"/>
       <c r="R13" s="63"/>
-      <c r="S13" s="69" t="s">
+      <c r="S13" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="T13" s="71" t="s">
+      <c r="T13" s="70" t="s">
         <v>22</v>
       </c>
       <c r="U13" s="57" t="s">
@@ -6717,26 +6714,26 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="63"/>
-      <c r="E14" s="68">
-        <v>0</v>
-      </c>
-      <c r="F14" s="68">
+      <c r="E14" s="67">
+        <v>0</v>
+      </c>
+      <c r="F14" s="67">
         <v>1</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="67">
         <v>2</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="67">
         <v>3</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="67">
         <v>4</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="67">
         <v>5</v>
       </c>
       <c r="K14" s="63"/>
@@ -6747,7 +6744,7 @@
       <c r="P14" s="63"/>
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
-      <c r="S14" s="69" t="s">
+      <c r="S14" s="68" t="s">
         <v>78</v>
       </c>
       <c r="T14" s="57">
@@ -6854,67 +6851,67 @@
       <c r="A19" s="53">
         <v>3</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="68">
-        <v>0</v>
-      </c>
-      <c r="E19" s="68">
+      <c r="D19" s="67">
+        <v>0</v>
+      </c>
+      <c r="E19" s="67">
         <v>1</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="67">
         <v>2</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="67">
         <v>3</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="67">
         <v>4</v>
       </c>
-      <c r="I19" s="68">
+      <c r="I19" s="67">
         <v>5</v>
       </c>
-      <c r="J19" s="68">
+      <c r="J19" s="67">
         <v>6</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="67">
         <v>7</v>
       </c>
-      <c r="L19" s="68">
+      <c r="L19" s="67">
         <v>8</v>
       </c>
-      <c r="M19" s="68">
+      <c r="M19" s="67">
         <v>9</v>
       </c>
-      <c r="N19" s="68">
+      <c r="N19" s="67">
         <v>10</v>
       </c>
-      <c r="O19" s="68">
+      <c r="O19" s="67">
         <v>11</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="67">
         <v>12</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="67">
         <v>13</v>
       </c>
-      <c r="R19" s="68">
+      <c r="R19" s="67">
         <v>14</v>
       </c>
-      <c r="S19" s="68">
+      <c r="S19" s="67">
         <v>15</v>
       </c>
-      <c r="T19" s="68">
+      <c r="T19" s="67">
         <v>16</v>
       </c>
-      <c r="U19" s="68">
+      <c r="U19" s="67">
         <v>17</v>
       </c>
-      <c r="V19" s="68">
+      <c r="V19" s="67">
         <v>18</v>
       </c>
-      <c r="W19" s="68">
+      <c r="W19" s="67">
         <v>19</v>
       </c>
     </row>
@@ -6943,7 +6940,7 @@
       <c r="J20" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="71" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="61" t="s">
@@ -6987,18 +6984,18 @@
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
       <c r="F21" s="63"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70">
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69">
         <v>5</v>
       </c>
-      <c r="M21" s="73" t="s">
+      <c r="M21" s="72" t="s">
         <v>69</v>
       </c>
       <c r="N21" s="63"/>
-      <c r="O21" s="73" t="s">
+      <c r="O21" s="72" t="s">
         <v>81</v>
       </c>
       <c r="P21" s="63"/>
@@ -7029,7 +7026,7 @@
       <c r="J22" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="71" t="s">
         <v>23</v>
       </c>
       <c r="M22" s="63"/>
@@ -7038,10 +7035,10 @@
       <c r="P22" s="63"/>
       <c r="Q22" s="63"/>
       <c r="R22" s="63"/>
-      <c r="S22" s="69" t="s">
+      <c r="S22" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="T22" s="71" t="s">
+      <c r="T22" s="70" t="s">
         <v>22</v>
       </c>
       <c r="U22" s="57" t="s">
@@ -7055,26 +7052,26 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="63"/>
-      <c r="F23" s="68">
-        <v>0</v>
-      </c>
-      <c r="G23" s="68">
+      <c r="F23" s="67">
+        <v>0</v>
+      </c>
+      <c r="G23" s="67">
         <v>1</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="67">
         <v>2</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="67">
         <v>3</v>
       </c>
-      <c r="J23" s="68">
+      <c r="J23" s="67">
         <v>4</v>
       </c>
-      <c r="K23" s="68">
+      <c r="K23" s="67">
         <v>5</v>
       </c>
       <c r="L23" s="63"/>
@@ -7084,7 +7081,7 @@
       <c r="P23" s="63"/>
       <c r="Q23" s="63"/>
       <c r="R23" s="63"/>
-      <c r="S23" s="69" t="s">
+      <c r="S23" s="68" t="s">
         <v>78</v>
       </c>
       <c r="T23" s="57">
@@ -7191,67 +7188,67 @@
       <c r="A28" s="53">
         <v>4</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="68">
-        <v>0</v>
-      </c>
-      <c r="E28" s="68">
+      <c r="D28" s="67">
+        <v>0</v>
+      </c>
+      <c r="E28" s="67">
         <v>1</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="67">
         <v>2</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="67">
         <v>3</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="67">
         <v>4</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I28" s="67">
         <v>5</v>
       </c>
-      <c r="J28" s="68">
+      <c r="J28" s="67">
         <v>6</v>
       </c>
-      <c r="K28" s="68">
+      <c r="K28" s="67">
         <v>7</v>
       </c>
-      <c r="L28" s="68">
+      <c r="L28" s="67">
         <v>8</v>
       </c>
-      <c r="M28" s="68">
+      <c r="M28" s="67">
         <v>9</v>
       </c>
-      <c r="N28" s="68">
+      <c r="N28" s="67">
         <v>10</v>
       </c>
-      <c r="O28" s="68">
+      <c r="O28" s="67">
         <v>11</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="67">
         <v>12</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="67">
         <v>13</v>
       </c>
-      <c r="R28" s="68">
+      <c r="R28" s="67">
         <v>14</v>
       </c>
-      <c r="S28" s="68">
+      <c r="S28" s="67">
         <v>15</v>
       </c>
-      <c r="T28" s="68">
+      <c r="T28" s="67">
         <v>16</v>
       </c>
-      <c r="U28" s="68">
+      <c r="U28" s="67">
         <v>17</v>
       </c>
-      <c r="V28" s="68">
+      <c r="V28" s="67">
         <v>18</v>
       </c>
-      <c r="W28" s="68">
+      <c r="W28" s="67">
         <v>19</v>
       </c>
     </row>
@@ -7283,7 +7280,7 @@
       <c r="K29" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="72" t="s">
+      <c r="L29" s="71" t="s">
         <v>77</v>
       </c>
       <c r="M29" s="61" t="s">
@@ -7324,19 +7321,19 @@
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
       <c r="F30" s="63"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70">
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69">
         <v>6</v>
       </c>
-      <c r="M30" s="73" t="s">
+      <c r="M30" s="72" t="s">
         <v>49</v>
       </c>
       <c r="N30" s="63"/>
-      <c r="O30" s="73" t="s">
+      <c r="O30" s="72" t="s">
         <v>82</v>
       </c>
       <c r="P30" s="63"/>
@@ -7367,7 +7364,7 @@
       <c r="K31" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="72" t="s">
+      <c r="L31" s="71" t="s">
         <v>23</v>
       </c>
       <c r="M31" s="63"/>
@@ -7376,7 +7373,7 @@
       <c r="P31" s="63"/>
       <c r="Q31" s="63"/>
       <c r="R31" s="63"/>
-      <c r="S31" s="69" t="s">
+      <c r="S31" s="68" t="s">
         <v>64</v>
       </c>
       <c r="T31" s="57" t="s">
@@ -7388,31 +7385,31 @@
       <c r="V31" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="W31" s="71" t="s">
+      <c r="W31" s="70" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="63"/>
-      <c r="G32" s="68">
-        <v>0</v>
-      </c>
-      <c r="H32" s="68">
+      <c r="G32" s="67">
+        <v>0</v>
+      </c>
+      <c r="H32" s="67">
         <v>1</v>
       </c>
-      <c r="I32" s="68">
+      <c r="I32" s="67">
         <v>2</v>
       </c>
-      <c r="J32" s="68">
+      <c r="J32" s="67">
         <v>3</v>
       </c>
-      <c r="K32" s="68">
+      <c r="K32" s="67">
         <v>4</v>
       </c>
-      <c r="L32" s="68">
+      <c r="L32" s="67">
         <v>5</v>
       </c>
       <c r="M32" s="63"/>
@@ -7421,7 +7418,7 @@
       <c r="P32" s="63"/>
       <c r="Q32" s="63"/>
       <c r="R32" s="63"/>
-      <c r="S32" s="69" t="s">
+      <c r="S32" s="68" t="s">
         <v>78</v>
       </c>
       <c r="T32" s="57">
@@ -7528,67 +7525,67 @@
       <c r="A37" s="53">
         <v>5</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="68">
-        <v>0</v>
-      </c>
-      <c r="E37" s="68">
+      <c r="D37" s="67">
+        <v>0</v>
+      </c>
+      <c r="E37" s="67">
         <v>1</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="67">
         <v>2</v>
       </c>
-      <c r="G37" s="68">
+      <c r="G37" s="67">
         <v>3</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="67">
         <v>4</v>
       </c>
-      <c r="I37" s="68">
+      <c r="I37" s="67">
         <v>5</v>
       </c>
-      <c r="J37" s="68">
+      <c r="J37" s="67">
         <v>6</v>
       </c>
-      <c r="K37" s="68">
+      <c r="K37" s="67">
         <v>7</v>
       </c>
-      <c r="L37" s="68">
+      <c r="L37" s="67">
         <v>8</v>
       </c>
-      <c r="M37" s="68">
+      <c r="M37" s="67">
         <v>9</v>
       </c>
-      <c r="N37" s="68">
+      <c r="N37" s="67">
         <v>10</v>
       </c>
-      <c r="O37" s="68">
+      <c r="O37" s="67">
         <v>11</v>
       </c>
-      <c r="P37" s="68">
+      <c r="P37" s="67">
         <v>12</v>
       </c>
-      <c r="Q37" s="68">
+      <c r="Q37" s="67">
         <v>13</v>
       </c>
-      <c r="R37" s="68">
+      <c r="R37" s="67">
         <v>14</v>
       </c>
-      <c r="S37" s="68">
+      <c r="S37" s="67">
         <v>15</v>
       </c>
-      <c r="T37" s="68">
+      <c r="T37" s="67">
         <v>16</v>
       </c>
-      <c r="U37" s="68">
+      <c r="U37" s="67">
         <v>17</v>
       </c>
-      <c r="V37" s="68">
+      <c r="V37" s="67">
         <v>18</v>
       </c>
-      <c r="W37" s="68">
+      <c r="W37" s="67">
         <v>19</v>
       </c>
     </row>
@@ -7638,7 +7635,7 @@
       <c r="Q38" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="R38" s="72" t="s">
+      <c r="R38" s="71" t="s">
         <v>22</v>
       </c>
       <c r="S38" s="61" t="s">
@@ -7658,21 +7655,21 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="72" t="s">
         <v>69</v>
       </c>
       <c r="E39" s="63"/>
-      <c r="F39" s="73" t="s">
+      <c r="F39" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
       <c r="P39" s="63"/>
       <c r="Q39" s="63"/>
-      <c r="R39" s="70">
+      <c r="R39" s="69">
         <v>7</v>
       </c>
       <c r="S39" s="63"/>
@@ -7682,10 +7679,10 @@
       <c r="W39" s="63"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="70" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="57" t="s">
@@ -7715,12 +7712,12 @@
       <c r="Q40" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="R40" s="72" t="s">
+      <c r="R40" s="71" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="68" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="57">
@@ -7735,25 +7732,25 @@
       <c r="G41" s="57">
         <v>-1</v>
       </c>
-      <c r="L41" s="68" t="s">
+      <c r="L41" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="68">
-        <v>0</v>
-      </c>
-      <c r="N41" s="68">
+      <c r="M41" s="67">
+        <v>0</v>
+      </c>
+      <c r="N41" s="67">
         <v>1</v>
       </c>
-      <c r="O41" s="68">
+      <c r="O41" s="67">
         <v>2</v>
       </c>
-      <c r="P41" s="68">
+      <c r="P41" s="67">
         <v>3</v>
       </c>
-      <c r="Q41" s="68">
+      <c r="Q41" s="67">
         <v>4</v>
       </c>
-      <c r="R41" s="68">
+      <c r="R41" s="67">
         <v>5</v>
       </c>
     </row>
@@ -7848,67 +7845,67 @@
       <c r="A46" s="53">
         <v>6</v>
       </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="68">
-        <v>0</v>
-      </c>
-      <c r="E46" s="68">
+      <c r="D46" s="67">
+        <v>0</v>
+      </c>
+      <c r="E46" s="67">
         <v>1</v>
       </c>
-      <c r="F46" s="68">
+      <c r="F46" s="67">
         <v>2</v>
       </c>
-      <c r="G46" s="68">
+      <c r="G46" s="67">
         <v>3</v>
       </c>
-      <c r="H46" s="68">
+      <c r="H46" s="67">
         <v>4</v>
       </c>
-      <c r="I46" s="68">
+      <c r="I46" s="67">
         <v>5</v>
       </c>
-      <c r="J46" s="68">
+      <c r="J46" s="67">
         <v>6</v>
       </c>
-      <c r="K46" s="68">
+      <c r="K46" s="67">
         <v>7</v>
       </c>
-      <c r="L46" s="68">
+      <c r="L46" s="67">
         <v>8</v>
       </c>
-      <c r="M46" s="68">
+      <c r="M46" s="67">
         <v>9</v>
       </c>
-      <c r="N46" s="68">
+      <c r="N46" s="67">
         <v>10</v>
       </c>
-      <c r="O46" s="68">
+      <c r="O46" s="67">
         <v>11</v>
       </c>
-      <c r="P46" s="68">
+      <c r="P46" s="67">
         <v>12</v>
       </c>
-      <c r="Q46" s="68">
+      <c r="Q46" s="67">
         <v>13</v>
       </c>
-      <c r="R46" s="68">
+      <c r="R46" s="67">
         <v>14</v>
       </c>
-      <c r="S46" s="68">
+      <c r="S46" s="67">
         <v>15</v>
       </c>
-      <c r="T46" s="68">
+      <c r="T46" s="67">
         <v>16</v>
       </c>
-      <c r="U46" s="68">
+      <c r="U46" s="67">
         <v>17</v>
       </c>
-      <c r="V46" s="68">
+      <c r="V46" s="67">
         <v>18</v>
       </c>
-      <c r="W46" s="68">
+      <c r="W46" s="67">
         <v>19</v>
       </c>
     </row>
@@ -7946,22 +7943,22 @@
       <c r="M47" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="N47" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="O47" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="P47" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q47" s="74" t="s">
+      <c r="N47" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="R47" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="S47" s="74" t="s">
+      <c r="R47" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S47" s="73" t="s">
         <v>23</v>
       </c>
       <c r="T47" s="61" t="s">
@@ -7978,30 +7975,30 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D48" s="73"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="63"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="N48" s="70">
+      <c r="F48" s="72"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="N48" s="69">
         <v>13</v>
       </c>
-      <c r="O48" s="70">
+      <c r="O48" s="69">
         <v>12</v>
       </c>
-      <c r="P48" s="70">
+      <c r="P48" s="69">
         <v>11</v>
       </c>
-      <c r="Q48" s="70">
+      <c r="Q48" s="69">
         <v>10</v>
       </c>
-      <c r="R48" s="70">
+      <c r="R48" s="69">
         <v>9</v>
       </c>
-      <c r="S48" s="70">
+      <c r="S48" s="69">
         <v>8</v>
       </c>
       <c r="T48" s="63"/>
@@ -8010,7 +8007,7 @@
       <c r="W48" s="63"/>
     </row>
     <row r="49" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="68" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="57" t="s">
@@ -8028,27 +8025,27 @@
       <c r="M49" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="N49" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="O49" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="P49" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q49" s="74" t="s">
+      <c r="N49" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O49" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="R49" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="S49" s="74" t="s">
+      <c r="R49" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S49" s="73" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C50" s="69" t="s">
+      <c r="C50" s="68" t="s">
         <v>78</v>
       </c>
       <c r="D50" s="57">
@@ -8063,25 +8060,25 @@
       <c r="G50" s="57">
         <v>-1</v>
       </c>
-      <c r="M50" s="68" t="s">
+      <c r="M50" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="68">
-        <v>0</v>
-      </c>
-      <c r="O50" s="68">
+      <c r="N50" s="67">
+        <v>0</v>
+      </c>
+      <c r="O50" s="67">
         <v>1</v>
       </c>
-      <c r="P50" s="68">
+      <c r="P50" s="67">
         <v>2</v>
       </c>
-      <c r="Q50" s="68">
+      <c r="Q50" s="67">
         <v>3</v>
       </c>
-      <c r="R50" s="68">
+      <c r="R50" s="67">
         <v>4</v>
       </c>
-      <c r="S50" s="68">
+      <c r="S50" s="67">
         <v>5</v>
       </c>
     </row>
@@ -11191,7 +11188,7 @@
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="61" t="s">
@@ -11322,7 +11319,7 @@
       </c>
     </row>
     <row r="18" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="66" t="s">
         <v>64</v>
       </c>
       <c r="G18" s="57" t="s">
@@ -11352,7 +11349,7 @@
       </c>
     </row>
     <row r="19" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="66" t="s">
         <v>78</v>
       </c>
       <c r="G19" s="57">

--- a/Lainnya/Metode penelitian.xlsx
+++ b/Lainnya/Metode penelitian.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Skripsi\Lainnya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653D9179-9E19-4A49-9A3E-E75AA1ABDEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C71A382-51A0-43AD-9FA2-F9D25684FB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{24E9A487-15DF-4577-95BF-8288844F23AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{24E9A487-15DF-4577-95BF-8288844F23AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="NSM" sheetId="4" r:id="rId1"/>
+    <sheet name="NSM Fix" sheetId="4" r:id="rId1"/>
     <sheet name="KMP BF fix" sheetId="6" r:id="rId2"/>
     <sheet name="BM Fix" sheetId="8" r:id="rId3"/>
-    <sheet name="NSM Ex" sheetId="1" r:id="rId4"/>
-    <sheet name="KMP" sheetId="2" r:id="rId5"/>
-    <sheet name="KMP Revisi" sheetId="5" r:id="rId6"/>
-    <sheet name="KMP1" sheetId="3" r:id="rId7"/>
-    <sheet name="Mentahan" sheetId="7" r:id="rId8"/>
+    <sheet name="RK Fix" sheetId="9" r:id="rId4"/>
+    <sheet name="NSM Ex" sheetId="1" r:id="rId5"/>
+    <sheet name="KMP" sheetId="2" r:id="rId6"/>
+    <sheet name="KMP Revisi" sheetId="5" r:id="rId7"/>
+    <sheet name="KMP1" sheetId="3" r:id="rId8"/>
+    <sheet name="Mentahan" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'NSM Ex'!$A$1:$V$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'NSM Ex'!$A$1:$V$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="93">
   <si>
     <t>I</t>
   </si>
@@ -317,6 +318,33 @@
   <si>
     <t>i=i + m - (lo+1) = 14 + 6 - (4+1) = 15</t>
   </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>- hash("ISE") = a1</t>
+  </si>
+  <si>
+    <t>- hash("SEP") = a2</t>
+  </si>
+  <si>
+    <t>- hash("EPL") = a3</t>
+  </si>
+  <si>
+    <t>- hash("PLU") = a4</t>
+  </si>
+  <si>
+    <t>- hash("LUT") = a5</t>
+  </si>
+  <si>
+    <t>- hash("UTP") = a6</t>
+  </si>
+  <si>
+    <t>- hash("TPI") = a7</t>
+  </si>
+  <si>
+    <t>- hash("PIN") = a8</t>
+  </si>
 </sst>
 </file>
 
@@ -513,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -690,11 +718,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -876,6 +949,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3200,10 +3286,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1420A0A5-0426-480F-AD14-274674383F47}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B1:U35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4127,10 +4216,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB7B621-5F6C-4BAE-BC58-C65974731833}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A3:AC62"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:M10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6189,10 +6281,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59687938-4762-4690-97F4-53E5A9DF2542}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z55" sqref="Z55"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8089,10 +8184,904 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEA1296-9F4F-4873-98E5-741C79FEAE9B}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:N63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="14" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="41">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41">
+        <v>1</v>
+      </c>
+      <c r="E2" s="41">
+        <v>2</v>
+      </c>
+      <c r="F2" s="41">
+        <v>3</v>
+      </c>
+      <c r="G2" s="41">
+        <v>4</v>
+      </c>
+      <c r="H2" s="41">
+        <v>5</v>
+      </c>
+      <c r="I2" s="41">
+        <v>6</v>
+      </c>
+      <c r="J2" s="41">
+        <v>7</v>
+      </c>
+      <c r="K2" s="41">
+        <v>8</v>
+      </c>
+      <c r="L2" s="41">
+        <v>9</v>
+      </c>
+      <c r="M2" s="41">
+        <v>10</v>
+      </c>
+      <c r="N2" s="41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="41">
+        <v>0</v>
+      </c>
+      <c r="D10" s="41">
+        <v>1</v>
+      </c>
+      <c r="E10" s="41">
+        <v>2</v>
+      </c>
+      <c r="F10" s="41">
+        <v>3</v>
+      </c>
+      <c r="G10" s="41">
+        <v>4</v>
+      </c>
+      <c r="H10" s="41">
+        <v>5</v>
+      </c>
+      <c r="I10" s="41">
+        <v>6</v>
+      </c>
+      <c r="J10" s="41">
+        <v>7</v>
+      </c>
+      <c r="K10" s="41">
+        <v>8</v>
+      </c>
+      <c r="L10" s="41">
+        <v>9</v>
+      </c>
+      <c r="M10" s="41">
+        <v>10</v>
+      </c>
+      <c r="N10" s="41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="41">
+        <v>0</v>
+      </c>
+      <c r="D18" s="41">
+        <v>1</v>
+      </c>
+      <c r="E18" s="41">
+        <v>2</v>
+      </c>
+      <c r="F18" s="41">
+        <v>3</v>
+      </c>
+      <c r="G18" s="41">
+        <v>4</v>
+      </c>
+      <c r="H18" s="41">
+        <v>5</v>
+      </c>
+      <c r="I18" s="41">
+        <v>6</v>
+      </c>
+      <c r="J18" s="41">
+        <v>7</v>
+      </c>
+      <c r="K18" s="41">
+        <v>8</v>
+      </c>
+      <c r="L18" s="41">
+        <v>9</v>
+      </c>
+      <c r="M18" s="41">
+        <v>10</v>
+      </c>
+      <c r="N18" s="41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="41">
+        <v>0</v>
+      </c>
+      <c r="D26" s="41">
+        <v>1</v>
+      </c>
+      <c r="E26" s="41">
+        <v>2</v>
+      </c>
+      <c r="F26" s="41">
+        <v>3</v>
+      </c>
+      <c r="G26" s="41">
+        <v>4</v>
+      </c>
+      <c r="H26" s="41">
+        <v>5</v>
+      </c>
+      <c r="I26" s="41">
+        <v>6</v>
+      </c>
+      <c r="J26" s="41">
+        <v>7</v>
+      </c>
+      <c r="K26" s="41">
+        <v>8</v>
+      </c>
+      <c r="L26" s="41">
+        <v>9</v>
+      </c>
+      <c r="M26" s="41">
+        <v>10</v>
+      </c>
+      <c r="N26" s="41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="41">
+        <v>0</v>
+      </c>
+      <c r="D34" s="41">
+        <v>1</v>
+      </c>
+      <c r="E34" s="41">
+        <v>2</v>
+      </c>
+      <c r="F34" s="41">
+        <v>3</v>
+      </c>
+      <c r="G34" s="41">
+        <v>4</v>
+      </c>
+      <c r="H34" s="41">
+        <v>5</v>
+      </c>
+      <c r="I34" s="41">
+        <v>6</v>
+      </c>
+      <c r="J34" s="41">
+        <v>7</v>
+      </c>
+      <c r="K34" s="41">
+        <v>8</v>
+      </c>
+      <c r="L34" s="41">
+        <v>9</v>
+      </c>
+      <c r="M34" s="41">
+        <v>10</v>
+      </c>
+      <c r="N34" s="41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="41">
+        <v>0</v>
+      </c>
+      <c r="D42" s="41">
+        <v>1</v>
+      </c>
+      <c r="E42" s="41">
+        <v>2</v>
+      </c>
+      <c r="F42" s="41">
+        <v>3</v>
+      </c>
+      <c r="G42" s="41">
+        <v>4</v>
+      </c>
+      <c r="H42" s="41">
+        <v>5</v>
+      </c>
+      <c r="I42" s="41">
+        <v>6</v>
+      </c>
+      <c r="J42" s="41">
+        <v>7</v>
+      </c>
+      <c r="K42" s="41">
+        <v>8</v>
+      </c>
+      <c r="L42" s="41">
+        <v>9</v>
+      </c>
+      <c r="M42" s="41">
+        <v>10</v>
+      </c>
+      <c r="N42" s="41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N43" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C47" s="74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="41">
+        <v>0</v>
+      </c>
+      <c r="D50" s="41">
+        <v>1</v>
+      </c>
+      <c r="E50" s="41">
+        <v>2</v>
+      </c>
+      <c r="F50" s="41">
+        <v>3</v>
+      </c>
+      <c r="G50" s="41">
+        <v>4</v>
+      </c>
+      <c r="H50" s="41">
+        <v>5</v>
+      </c>
+      <c r="I50" s="41">
+        <v>6</v>
+      </c>
+      <c r="J50" s="41">
+        <v>7</v>
+      </c>
+      <c r="K50" s="41">
+        <v>8</v>
+      </c>
+      <c r="L50" s="41">
+        <v>9</v>
+      </c>
+      <c r="M50" s="41">
+        <v>10</v>
+      </c>
+      <c r="N50" s="41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N51" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C54" s="74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C55" s="74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="41">
+        <v>0</v>
+      </c>
+      <c r="D58" s="41">
+        <v>1</v>
+      </c>
+      <c r="E58" s="41">
+        <v>2</v>
+      </c>
+      <c r="F58" s="41">
+        <v>3</v>
+      </c>
+      <c r="G58" s="41">
+        <v>4</v>
+      </c>
+      <c r="H58" s="41">
+        <v>5</v>
+      </c>
+      <c r="I58" s="41">
+        <v>6</v>
+      </c>
+      <c r="J58" s="41">
+        <v>7</v>
+      </c>
+      <c r="K58" s="41">
+        <v>8</v>
+      </c>
+      <c r="L58" s="41">
+        <v>9</v>
+      </c>
+      <c r="M58" s="41">
+        <v>10</v>
+      </c>
+      <c r="N58" s="41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N59" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C62" s="74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C63" s="74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0C12C0-93A7-43A6-ADB4-02616CDFAD6E}">
   <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
@@ -8830,11 +9819,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7519DEAE-94E8-4B24-B9E5-9932F26C954D}">
   <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="F15" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
@@ -9687,7 +10676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B8246-B2DC-466D-B4FD-06E0276ACFA1}">
   <dimension ref="B2:O51"/>
   <sheetViews>
@@ -10570,7 +11559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C304ACDA-8514-4085-B05E-B57D0C233FC4}">
   <dimension ref="B2:K27"/>
   <sheetViews>
@@ -10901,7 +11890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713BF885-D94A-4C38-9FF5-3DBBE1B21BE9}">
   <dimension ref="B1:AG29"/>
   <sheetViews>

--- a/Lainnya/Metode penelitian.xlsx
+++ b/Lainnya/Metode penelitian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Skripsi\Lainnya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C71A382-51A0-43AD-9FA2-F9D25684FB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA72394-D499-4EF8-9A07-18DF99B86544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{24E9A487-15DF-4577-95BF-8288844F23AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{24E9A487-15DF-4577-95BF-8288844F23AB}"/>
   </bookViews>
   <sheets>
     <sheet name="NSM Fix" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="93">
   <si>
     <t>I</t>
   </si>
@@ -984,23 +984,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>579056</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182617</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>323127</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6B7166-A0A3-85AB-7C27-8C5E39B092EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4774AF6-9038-42A7-A5D3-EA1307DE6DDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,8 +1016,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8733693" y="2344615"/>
-          <a:ext cx="6887536" cy="1267002"/>
+          <a:off x="10873154" y="1883019"/>
+          <a:ext cx="9357223" cy="5113347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1030,55 +1030,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>525071</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57865</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE339F04-4F86-0045-3251-57D7A6F7B1B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7667625" y="533400"/>
-          <a:ext cx="8573696" cy="5125165"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1189,7 +1140,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1326,7 +1277,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1419,20 +1370,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>59220</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
+      <xdr:colOff>34372</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>222748</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>94086</xdr:rowOff>
+      <xdr:colOff>197900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127217</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1455,7 +1406,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7646090" y="505239"/>
+          <a:off x="7621242" y="728870"/>
           <a:ext cx="9357223" cy="5113347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1468,7 +1419,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3291,8 +3242,8 @@
   </sheetPr>
   <dimension ref="B1:U35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,10 +4170,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A3:AC62"/>
+  <dimension ref="A4:AC62"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4240,11 +4191,6 @@
     <col min="14" max="29" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
         <v>20</v>
@@ -6286,16 +6232,16 @@
   </sheetPr>
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:W6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="53"/>
     <col min="2" max="2" width="3.7109375" style="63" customWidth="1"/>
-    <col min="3" max="31" width="3.7109375" style="53" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="53"/>
+    <col min="3" max="26" width="3.7109375" style="53" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -8179,7 +8125,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8190,8 +8135,8 @@
   </sheetPr>
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView showGridLines="0" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11563,7 +11508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C304ACDA-8514-4085-B05E-B57D0C233FC4}">
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
